--- a/julia/Resolve_MILP/all_instances_result_milp_Zt.xlsx
+++ b/julia/Resolve_MILP/all_instances_result_milp_Zt.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Instances</t>
   </si>
@@ -163,126 +163,6 @@
   </si>
   <si>
     <t>20_10_10</t>
-  </si>
-  <si>
-    <t>50_5_1</t>
-  </si>
-  <si>
-    <t>50_5_2</t>
-  </si>
-  <si>
-    <t>50_5_3</t>
-  </si>
-  <si>
-    <t>50_5_4</t>
-  </si>
-  <si>
-    <t>50_5_5</t>
-  </si>
-  <si>
-    <t>50_5_6</t>
-  </si>
-  <si>
-    <t>50_5_7</t>
-  </si>
-  <si>
-    <t>50_5_8</t>
-  </si>
-  <si>
-    <t>50_5_9</t>
-  </si>
-  <si>
-    <t>50_5_10</t>
-  </si>
-  <si>
-    <t>50_10_1</t>
-  </si>
-  <si>
-    <t>50_10_2</t>
-  </si>
-  <si>
-    <t>50_10_3</t>
-  </si>
-  <si>
-    <t>50_10_4</t>
-  </si>
-  <si>
-    <t>50_10_5</t>
-  </si>
-  <si>
-    <t>50_10_6</t>
-  </si>
-  <si>
-    <t>50_10_7</t>
-  </si>
-  <si>
-    <t>50_10_8</t>
-  </si>
-  <si>
-    <t>50_10_9</t>
-  </si>
-  <si>
-    <t>50_10_10</t>
-  </si>
-  <si>
-    <t>100_5_1</t>
-  </si>
-  <si>
-    <t>100_5_2</t>
-  </si>
-  <si>
-    <t>100_5_3</t>
-  </si>
-  <si>
-    <t>100_5_4</t>
-  </si>
-  <si>
-    <t>100_5_5</t>
-  </si>
-  <si>
-    <t>100_5_6</t>
-  </si>
-  <si>
-    <t>100_5_7</t>
-  </si>
-  <si>
-    <t>100_5_8</t>
-  </si>
-  <si>
-    <t>100_5_9</t>
-  </si>
-  <si>
-    <t>100_5_10</t>
-  </si>
-  <si>
-    <t>100_10_1</t>
-  </si>
-  <si>
-    <t>100_10_2</t>
-  </si>
-  <si>
-    <t>100_10_3</t>
-  </si>
-  <si>
-    <t>100_10_4</t>
-  </si>
-  <si>
-    <t>100_10_5</t>
-  </si>
-  <si>
-    <t>100_10_6</t>
-  </si>
-  <si>
-    <t>100_10_7</t>
-  </si>
-  <si>
-    <t>100_10_8</t>
-  </si>
-  <si>
-    <t>100_10_9</t>
-  </si>
-  <si>
-    <t>100_10_10</t>
   </si>
 </sst>
 </file>
@@ -634,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.0122</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -697,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.022</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -717,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0062</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -737,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0046</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -757,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.0103</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -777,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.005</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -797,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0067</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -817,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0069</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -837,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0131</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -857,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.0116</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -877,7 +757,7 @@
         <v>67</v>
       </c>
       <c r="F12">
-        <v>0.0613</v>
+        <v>0.0748</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -897,7 +777,7 @@
         <v>532</v>
       </c>
       <c r="F13">
-        <v>0.1102</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -917,7 +797,7 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>0.0642</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -937,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.0879</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -957,7 +837,7 @@
         <v>240</v>
       </c>
       <c r="F16">
-        <v>0.0829</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -977,7 +857,7 @@
         <v>261</v>
       </c>
       <c r="F17">
-        <v>0.0857</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -997,7 +877,7 @@
         <v>253</v>
       </c>
       <c r="F18">
-        <v>0.0914</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1017,7 +897,7 @@
         <v>1378</v>
       </c>
       <c r="F19">
-        <v>0.1399</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1037,7 +917,7 @@
         <v>106</v>
       </c>
       <c r="F20">
-        <v>0.0713</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1057,7 +937,7 @@
         <v>342</v>
       </c>
       <c r="F21">
-        <v>0.0718</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1077,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.037</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1097,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.0192</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1117,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0351</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1137,7 +1017,7 @@
         <v>1618</v>
       </c>
       <c r="F25">
-        <v>0.1395</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1157,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.0229</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1177,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.0627</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1197,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.0131</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1217,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0131</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1237,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.0336</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1257,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.0319</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1277,7 +1157,7 @@
         <v>6143</v>
       </c>
       <c r="F32">
-        <v>0.487</v>
+        <v>0.6725</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1297,7 +1177,7 @@
         <v>436</v>
       </c>
       <c r="F33">
-        <v>0.1215</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1317,7 +1197,7 @@
         <v>1507</v>
       </c>
       <c r="F34">
-        <v>0.2076</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1337,7 +1217,7 @@
         <v>2509</v>
       </c>
       <c r="F35">
-        <v>0.3143</v>
+        <v>0.3124</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1357,7 +1237,7 @@
         <v>128</v>
       </c>
       <c r="F36">
-        <v>0.1044</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1377,7 +1257,7 @@
         <v>1462</v>
       </c>
       <c r="F37">
-        <v>0.2093</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1397,7 +1277,7 @@
         <v>1927</v>
       </c>
       <c r="F38">
-        <v>0.2621</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1417,7 +1297,7 @@
         <v>596</v>
       </c>
       <c r="F39">
-        <v>0.1757</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1437,7 +1317,7 @@
         <v>115</v>
       </c>
       <c r="F40">
-        <v>0.1159</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1457,807 +1337,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.1393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>164257.0</v>
-      </c>
-      <c r="C42">
-        <v>164253.11</v>
-      </c>
-      <c r="D42">
-        <v>0.0024</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0.0452</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>170422.0</v>
-      </c>
-      <c r="C43">
-        <v>170407.8</v>
-      </c>
-      <c r="D43">
-        <v>0.0083</v>
-      </c>
-      <c r="E43">
-        <v>170</v>
-      </c>
-      <c r="F43">
-        <v>0.1057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>177460.0</v>
-      </c>
-      <c r="C44">
-        <v>177443.4</v>
-      </c>
-      <c r="D44">
-        <v>0.0094</v>
-      </c>
-      <c r="E44">
-        <v>1159</v>
-      </c>
-      <c r="F44">
-        <v>0.1454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45">
-        <v>173467.0</v>
-      </c>
-      <c r="C45">
-        <v>173460.47</v>
-      </c>
-      <c r="D45">
-        <v>0.0038</v>
-      </c>
-      <c r="E45">
-        <v>104</v>
-      </c>
-      <c r="F45">
-        <v>0.1074</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46">
-        <v>165792.0</v>
-      </c>
-      <c r="C46">
-        <v>165779.77</v>
-      </c>
-      <c r="D46">
-        <v>0.0074</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0.0458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47">
-        <v>171770.0</v>
-      </c>
-      <c r="C47">
-        <v>171764.16</v>
-      </c>
-      <c r="D47">
-        <v>0.0034</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0.0879</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48">
-        <v>180896.0</v>
-      </c>
-      <c r="C48">
-        <v>180896.0</v>
-      </c>
-      <c r="D48">
-        <v>0.0</v>
-      </c>
-      <c r="E48">
-        <v>3019</v>
-      </c>
-      <c r="F48">
-        <v>0.9856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <v>161965.0</v>
-      </c>
-      <c r="C49">
-        <v>161963.0</v>
-      </c>
-      <c r="D49">
-        <v>0.0012</v>
-      </c>
-      <c r="E49">
-        <v>25</v>
-      </c>
-      <c r="F49">
-        <v>0.0851</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50">
-        <v>172486.0</v>
-      </c>
-      <c r="C50">
-        <v>172474.27</v>
-      </c>
-      <c r="D50">
-        <v>0.0068</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0.0526</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51">
-        <v>161851.0</v>
-      </c>
-      <c r="C51">
-        <v>161851.0</v>
-      </c>
-      <c r="D51">
-        <v>0.0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>0.0495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52">
-        <v>325130.0</v>
-      </c>
-      <c r="C52">
-        <v>325100.76</v>
-      </c>
-      <c r="D52">
-        <v>0.009</v>
-      </c>
-      <c r="E52">
-        <v>4406</v>
-      </c>
-      <c r="F52">
-        <v>2.2955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53">
-        <v>324754.0</v>
-      </c>
-      <c r="C53">
-        <v>324746.23</v>
-      </c>
-      <c r="D53">
-        <v>0.0024</v>
-      </c>
-      <c r="E53">
-        <v>2097</v>
-      </c>
-      <c r="F53">
-        <v>0.4977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54">
-        <v>329134.0</v>
-      </c>
-      <c r="C54">
-        <v>329123.39</v>
-      </c>
-      <c r="D54">
-        <v>0.0032</v>
-      </c>
-      <c r="E54">
-        <v>6526</v>
-      </c>
-      <c r="F54">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55">
-        <v>329516.0</v>
-      </c>
-      <c r="C55">
-        <v>329484.33</v>
-      </c>
-      <c r="D55">
-        <v>0.0096</v>
-      </c>
-      <c r="E55">
-        <v>1497</v>
-      </c>
-      <c r="F55">
-        <v>0.7964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>328019.0</v>
-      </c>
-      <c r="C56">
-        <v>328002.54</v>
-      </c>
-      <c r="D56">
-        <v>0.005</v>
-      </c>
-      <c r="E56">
-        <v>183</v>
-      </c>
-      <c r="F56">
-        <v>0.2401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57">
-        <v>332403.32</v>
-      </c>
-      <c r="C57">
-        <v>332403.32</v>
-      </c>
-      <c r="D57">
-        <v>0.0</v>
-      </c>
-      <c r="E57">
-        <v>3987</v>
-      </c>
-      <c r="F57">
-        <v>2.0738</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58">
-        <v>331663.0</v>
-      </c>
-      <c r="C58">
-        <v>331635.66</v>
-      </c>
-      <c r="D58">
-        <v>0.0082</v>
-      </c>
-      <c r="E58">
-        <v>1935</v>
-      </c>
-      <c r="F58">
-        <v>0.5382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59">
-        <v>343003.0</v>
-      </c>
-      <c r="C59">
-        <v>343003.0</v>
-      </c>
-      <c r="D59">
-        <v>0.0</v>
-      </c>
-      <c r="E59">
-        <v>2280</v>
-      </c>
-      <c r="F59">
-        <v>2.1556</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60">
-        <v>311610.0</v>
-      </c>
-      <c r="C60">
-        <v>311591.26</v>
-      </c>
-      <c r="D60">
-        <v>0.006</v>
-      </c>
-      <c r="E60">
-        <v>469</v>
-      </c>
-      <c r="F60">
-        <v>0.2501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61">
-        <v>333907.0</v>
-      </c>
-      <c r="C61">
-        <v>333881.47</v>
-      </c>
-      <c r="D61">
-        <v>0.0076</v>
-      </c>
-      <c r="E61">
-        <v>28201</v>
-      </c>
-      <c r="F61">
-        <v>7.787</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62">
-        <v>332006.0</v>
-      </c>
-      <c r="C62">
-        <v>331989.29</v>
-      </c>
-      <c r="D62">
-        <v>0.005</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0.0796</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63">
-        <v>339328.0</v>
-      </c>
-      <c r="C63">
-        <v>339326.59</v>
-      </c>
-      <c r="D63">
-        <v>0.0004</v>
-      </c>
-      <c r="E63">
-        <v>948</v>
-      </c>
-      <c r="F63">
-        <v>0.2095</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64">
-        <v>331260.0</v>
-      </c>
-      <c r="C64">
-        <v>331226.92</v>
-      </c>
-      <c r="D64">
-        <v>0.01</v>
-      </c>
-      <c r="E64">
-        <v>63</v>
-      </c>
-      <c r="F64">
-        <v>0.1027</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65">
-        <v>327350.0</v>
-      </c>
-      <c r="C65">
-        <v>327319.12</v>
-      </c>
-      <c r="D65">
-        <v>0.0094</v>
-      </c>
-      <c r="E65">
-        <v>106</v>
-      </c>
-      <c r="F65">
-        <v>0.1671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66">
-        <v>339089.0</v>
-      </c>
-      <c r="C66">
-        <v>339074.12</v>
-      </c>
-      <c r="D66">
-        <v>0.0044</v>
-      </c>
-      <c r="E66">
-        <v>197</v>
-      </c>
-      <c r="F66">
-        <v>0.207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67">
-        <v>334298.0</v>
-      </c>
-      <c r="C67">
-        <v>334265.16</v>
-      </c>
-      <c r="D67">
-        <v>0.0098</v>
-      </c>
-      <c r="E67">
-        <v>135</v>
-      </c>
-      <c r="F67">
-        <v>0.1783</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68">
-        <v>327358.0</v>
-      </c>
-      <c r="C68">
-        <v>327326.16</v>
-      </c>
-      <c r="D68">
-        <v>0.0097</v>
-      </c>
-      <c r="E68">
-        <v>15</v>
-      </c>
-      <c r="F68">
-        <v>0.1824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69">
-        <v>335512.0</v>
-      </c>
-      <c r="C69">
-        <v>335483.48</v>
-      </c>
-      <c r="D69">
-        <v>0.0085</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0.1429</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70">
-        <v>328288.0</v>
-      </c>
-      <c r="C70">
-        <v>328268.62</v>
-      </c>
-      <c r="D70">
-        <v>0.0059</v>
-      </c>
-      <c r="E70">
-        <v>240</v>
-      </c>
-      <c r="F70">
-        <v>0.1236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71">
-        <v>340441.0</v>
-      </c>
-      <c r="C71">
-        <v>340440.38</v>
-      </c>
-      <c r="D71">
-        <v>0.0002</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0.1314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72">
-        <v>657847.0</v>
-      </c>
-      <c r="C72">
-        <v>657789.11</v>
-      </c>
-      <c r="D72">
-        <v>0.0088</v>
-      </c>
-      <c r="E72">
-        <v>3146</v>
-      </c>
-      <c r="F72">
-        <v>4.3032</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73">
-        <v>660381.0</v>
-      </c>
-      <c r="C73">
-        <v>660357.82</v>
-      </c>
-      <c r="D73">
-        <v>0.0035</v>
-      </c>
-      <c r="E73">
-        <v>827</v>
-      </c>
-      <c r="F73">
-        <v>0.6997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74">
-        <v>674412.6</v>
-      </c>
-      <c r="C74">
-        <v>674345.33</v>
-      </c>
-      <c r="D74">
-        <v>0.01</v>
-      </c>
-      <c r="E74">
-        <v>19736</v>
-      </c>
-      <c r="F74">
-        <v>10.7375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75">
-        <v>648311.0</v>
-      </c>
-      <c r="C75">
-        <v>648251.59</v>
-      </c>
-      <c r="D75">
-        <v>0.0092</v>
-      </c>
-      <c r="E75">
-        <v>826</v>
-      </c>
-      <c r="F75">
-        <v>0.6674</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76">
-        <v>628996.0</v>
-      </c>
-      <c r="C76">
-        <v>628976.94</v>
-      </c>
-      <c r="D76">
-        <v>0.003</v>
-      </c>
-      <c r="E76">
-        <v>1691</v>
-      </c>
-      <c r="F76">
-        <v>1.7456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77">
-        <v>621788.0</v>
-      </c>
-      <c r="C77">
-        <v>621727.92</v>
-      </c>
-      <c r="D77">
-        <v>0.0097</v>
-      </c>
-      <c r="E77">
-        <v>9512</v>
-      </c>
-      <c r="F77">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78">
-        <v>625850.0</v>
-      </c>
-      <c r="C78">
-        <v>625798.62</v>
-      </c>
-      <c r="D78">
-        <v>0.0082</v>
-      </c>
-      <c r="E78">
-        <v>1683</v>
-      </c>
-      <c r="F78">
-        <v>2.3761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79">
-        <v>644194.2</v>
-      </c>
-      <c r="C79">
-        <v>644139.83</v>
-      </c>
-      <c r="D79">
-        <v>0.0084</v>
-      </c>
-      <c r="E79">
-        <v>2036</v>
-      </c>
-      <c r="F79">
-        <v>1.151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80">
-        <v>643832.0</v>
-      </c>
-      <c r="C80">
-        <v>643794.34</v>
-      </c>
-      <c r="D80">
-        <v>0.0058</v>
-      </c>
-      <c r="E80">
-        <v>18276</v>
-      </c>
-      <c r="F80">
-        <v>10.7439</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81">
-        <v>660441.0</v>
-      </c>
-      <c r="C81">
-        <v>660416.72</v>
-      </c>
-      <c r="D81">
-        <v>0.0037</v>
-      </c>
-      <c r="E81">
-        <v>6786</v>
-      </c>
-      <c r="F81">
-        <v>6.3681</v>
+        <v>0.1521</v>
       </c>
     </row>
   </sheetData>

--- a/julia/Resolve_MILP/all_instances_result_milp_Zt.xlsx
+++ b/julia/Resolve_MILP/all_instances_result_milp_Zt.xlsx
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.0197</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0212</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0061</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0052</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.0092</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.0056</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0062</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0054</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.0126</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -757,7 +757,7 @@
         <v>67</v>
       </c>
       <c r="F12">
-        <v>0.0748</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -777,7 +777,7 @@
         <v>532</v>
       </c>
       <c r="F13">
-        <v>0.1402</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -797,7 +797,7 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>0.077</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.1081</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -837,7 +837,7 @@
         <v>240</v>
       </c>
       <c r="F16">
-        <v>0.1059</v>
+        <v>0.0807</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -857,7 +857,7 @@
         <v>261</v>
       </c>
       <c r="F17">
-        <v>0.0926</v>
+        <v>0.0785</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -877,7 +877,7 @@
         <v>253</v>
       </c>
       <c r="F18">
-        <v>0.0954</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -897,7 +897,7 @@
         <v>1378</v>
       </c>
       <c r="F19">
-        <v>0.1542</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -917,7 +917,7 @@
         <v>106</v>
       </c>
       <c r="F20">
-        <v>0.0689</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -937,7 +937,7 @@
         <v>342</v>
       </c>
       <c r="F21">
-        <v>0.0813</v>
+        <v>0.0719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.0519</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.0203</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.0431</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1017,7 +1017,7 @@
         <v>1618</v>
       </c>
       <c r="F25">
-        <v>0.1664</v>
+        <v>0.1506</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.0285</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.0743</v>
+        <v>0.0724</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0.0138</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.0134</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.0391</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.0346</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1157,7 +1157,7 @@
         <v>6143</v>
       </c>
       <c r="F32">
-        <v>0.6725</v>
+        <v>0.5726</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1177,7 +1177,7 @@
         <v>436</v>
       </c>
       <c r="F33">
-        <v>0.1425</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1197,7 +1197,7 @@
         <v>1507</v>
       </c>
       <c r="F34">
-        <v>0.2351</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1217,7 +1217,7 @@
         <v>2509</v>
       </c>
       <c r="F35">
-        <v>0.3124</v>
+        <v>0.3036</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1237,7 +1237,7 @@
         <v>128</v>
       </c>
       <c r="F36">
-        <v>0.1091</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1257,7 +1257,7 @@
         <v>1462</v>
       </c>
       <c r="F37">
-        <v>0.2299</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1277,7 +1277,7 @@
         <v>1927</v>
       </c>
       <c r="F38">
-        <v>0.2591</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1297,7 +1297,7 @@
         <v>596</v>
       </c>
       <c r="F39">
-        <v>0.161</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1317,7 +1317,7 @@
         <v>115</v>
       </c>
       <c r="F40">
-        <v>0.1113</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0.1521</v>
+        <v>0.1409</v>
       </c>
     </row>
   </sheetData>
